--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v071_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537097F4-E620-4694-8F08-A923D8CD8113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nrNh7EflnQspD65UPecbpbgC9aUdNVI7UDcO/9XG27gl21So/Q2j5ZXp+uvV8bWy+hNBJB+wYu2eC+rTp69UPg==" workbookSaltValue="iO+LyoK3E0hNtjWWKAqTQw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079A90E-D786-4CC3-A246-3057662D9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7Hr+YL1jIpBbxZv21sF31usCR51Asp9LP+e5HWvyUg8p3wHPaDaDDxsW/ntgnTLlzyLnfIvI0O02Z3Twxn9OOQ==" workbookSaltValue="Kfqgplwdib6wamvbyO4zTw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5693" yWindow="2433" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5047" yWindow="2473" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$63</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2788,18 +2788,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2816,6 +2804,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4004,7 +4001,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4059,7 +4058,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
@@ -4068,7 +4067,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="80"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32"/>
@@ -4299,7 +4298,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="78" t="s">
         <v>460</v>
       </c>
       <c r="E23" s="68"/>
@@ -4310,7 +4309,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="78" t="s">
         <v>462</v>
       </c>
       <c r="E24" s="35"/>
@@ -4320,7 +4319,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="79" t="s">
         <v>476</v>
       </c>
       <c r="E25" s="35"/>
@@ -4330,7 +4329,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="78" t="s">
         <v>470</v>
       </c>
       <c r="E26" s="68"/>
@@ -4341,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="78" t="s">
         <v>472</v>
       </c>
       <c r="E27" s="68"/>
@@ -4352,7 +4351,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="80" t="s">
         <v>461</v>
       </c>
       <c r="E28" s="68"/>
@@ -4408,7 +4407,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="73" t="s">
         <v>458</v>
       </c>
       <c r="E32" s="65"/>
@@ -4419,7 +4418,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="73" t="s">
         <v>459</v>
       </c>
       <c r="E33" s="65"/>
@@ -4430,7 +4429,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="73" t="s">
         <v>448</v>
       </c>
       <c r="E34" s="65"/>
@@ -4441,7 +4440,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="64"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="73" t="s">
         <v>449</v>
       </c>
       <c r="E35" s="65"/>
@@ -4452,7 +4451,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="73" t="s">
         <v>447</v>
       </c>
       <c r="E36" s="65"/>
@@ -4507,7 +4506,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="64"/>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="74" t="s">
         <v>466</v>
       </c>
       <c r="E40" s="37"/>
@@ -4518,7 +4517,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="65"/>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="73" t="s">
         <v>467</v>
       </c>
       <c r="G41" s="36"/>
@@ -4538,7 +4537,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="65"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="73" t="s">
         <v>445</v>
       </c>
       <c r="G43" s="36"/>
@@ -4596,7 +4595,7 @@
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="76" t="s">
+      <c r="D47" s="73" t="s">
         <v>465</v>
       </c>
       <c r="G47" s="36"/>
@@ -4609,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="73" t="s">
         <v>471</v>
       </c>
       <c r="E48" s="30"/>
@@ -4620,7 +4619,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="30"/>
-      <c r="D49" s="76" t="s">
+      <c r="D49" s="73" t="s">
         <v>473</v>
       </c>
       <c r="E49" s="30"/>
@@ -4651,7 +4650,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="65"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="73" t="s">
         <v>456</v>
       </c>
       <c r="G52" s="36"/>
@@ -4688,7 +4687,7 @@
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="76" t="s">
+      <c r="D56" s="73" t="s">
         <v>451</v>
       </c>
       <c r="G56" s="36"/>
@@ -4741,7 +4740,7 @@
       <c r="B60" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="73" t="s">
         <v>474</v>
       </c>
       <c r="G60" s="36"/>
@@ -4750,7 +4749,7 @@
       <c r="B61" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="77" t="s">
+      <c r="D61" s="74" t="s">
         <v>475</v>
       </c>
       <c r="G61" s="36"/>
@@ -4759,7 +4758,7 @@
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="74" t="s">
         <v>480</v>
       </c>
       <c r="G62" s="36"/>
@@ -4768,7 +4767,7 @@
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="76" t="s">
+      <c r="D63" s="73" t="s">
         <v>479</v>
       </c>
       <c r="G63" s="36"/>
@@ -4786,7 +4785,7 @@
       <c r="B65" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="73" t="s">
         <v>464</v>
       </c>
       <c r="G65" s="36"/>
@@ -4804,7 +4803,7 @@
       <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="73" t="s">
         <v>478</v>
       </c>
       <c r="G67" s="36"/>
@@ -4821,7 +4820,7 @@
       <c r="B71" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="74" t="s">
         <v>469</v>
       </c>
       <c r="G71" s="36"/>
@@ -4830,7 +4829,7 @@
       <c r="B72" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="74" t="s">
         <v>468</v>
       </c>
       <c r="G72" s="36"/>
@@ -4840,13 +4839,13 @@
         <v>64</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="73" t="s">
         <v>446</v>
       </c>
       <c r="G73" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AH4KJasEdYQ3N25YaPdtMmsHg01xxlZ+/8+ZO+XMctef18qp15IyMN/6OasvWAPNhO/HMHspIqaOtE4KVgwcdA==" saltValue="GcokVghiC3G1EGslbYy+og==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AaSACe3fCkN9O9pvxz7gasGbVIe+WFNm5UReXVT3NGAzNcqHcLARS+sVDbm5bvHHMWzL8TCvk3bS/t9QbN6gNQ==" saltValue="1Jz8I9RxFeEncmTixhYF+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B46:D46"/>
   </mergeCells>
@@ -5077,7 +5076,7 @@
       <c r="B12" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="75">
         <v>45841</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -5088,7 +5087,7 @@
       <c r="B13" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="75">
         <v>45841</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -5102,7 +5101,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="23"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -5161,7 +5160,7 @@
       <c r="D26" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4vdsC6DjnN0zUD73VK8tz79/+6atowIilMcNPrcXZLaxA3slsrZkKFVGUsTfVh65APfrmE/777sItP3FtPkDw==" saltValue="4SV3f/EXJyxevyZJscGNmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mIb1x3T13BaD/N/GquE3xc445Qw1IFiwo6yPJccZgqACiKwY1qYbPKU4zPj1XDpDHgwV9wYMf/wCRn5E76dxIA==" saltValue="xB8UfP2p2kgYGvaFcH3tfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7399,7 +7398,7 @@
       <c r="G122" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EGjA0T2ITyukWzYhQ6yyHlgXir/gHCSXrcp7L9uxR4Lnv0iSeF548HZHfR4b1sk1G6zDqnM/2ytnRjKnqgCb0g==" saltValue="tbcFErhIX/OUqZfrt3tRvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fwso6lBU0T6oCyJsRX9WjR1ZOBHU1JUEAjRMpSnd5g2CEktbJxoKIgreZUHGEvyWqvMX/KTNZt8PWUc2Rz1tqg==" saltValue="401SBNVCdbe6dum4VMHJ1w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -9107,7 +9106,7 @@
       <c r="G219"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YroMIgAgi5q3NFadsLwrvvXLEPZuSYHkV+6J8/uu28femhNp8Yl96Xq7wclarxcRoUghG9X/GJ22uvaISOEbug==" saltValue="zJIG8J3t+8r2k8+keC7dgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dB4QoxI9PcXRoVlYqhiulCiEOyxRLvF4koXyhx8gNgfYvmUtbPomWXdQMfTru8s2aAYaM5XF9cAbwg82MlTqcA==" saltValue="o7Cf4yQ3u1MeUnTIX36Usg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -9189,7 +9188,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wg+XNHWC52V24Tk5b5jGWvbjbSlZGpAYcbYHScl2xYxqJyEwlSENQEOS01t3HYrjKAq3gtSHW9nUYvfkySh1ag==" saltValue="ULtuSj80GEKjnt6U47wZ4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bm/U0yN/c50psf48PYDtIV21yypYdk4MdU5XfosbucpqRBT65RNw6t1d9t2FkpBDO3YnFUqRbEvlOcHJn6lWqg==" saltValue="IQkxt6g6DUngGkYjVIUBgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9276,7 +9275,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hvFq3Ntqd/4agejz0Xeu34TH7T1akLiusd/jR2d8s5esscKA8SRWhJsh1ZYsjaqyE6HBeS8V5RL6U2w285CGnQ==" saltValue="aflsR04pX22rsvQALLrsmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q6pKyCiUWIVW15lm6vcBLjmpid+QQl172sBY9xsPH2le0izy8dptpYqNFzTgk3WMTNjcpL2jbRMesERSzr2V1A==" saltValue="2DLggm/KiOp9PSYHiTwd0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10001,7 +10000,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kuJIZ4+EVa1fgCzrDMAckDybtkAsrIZ8cKBwk8/T71dPwAPa/peoSxSgviurMKvmNbxA8Ip5P1rIT6sEz6oO4Q==" saltValue="y13aASeD6SY10dGVzLqMlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DKRMo1RKKa+5+RjZtelsUZhcBY30cutb1FKbQ/DaBtrACX3z3pyBcTtgMdJhZzKd7IgEsPUGKAEYDGUuLcNYdw==" saltValue="4KS2ZQVOLeci1zJv1MBMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F48">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -10432,7 +10431,7 @@
       <c r="M27" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q89fSbuTRNqbgFnTzxlW0kbK6TW1I3yLXiIOhrZLJ0KqlmfoVUeFAMegVN4sz7oo4+tDzC6jhnzBMQ1HjnQbaw==" saltValue="zafUuAunJ68YW/9AtNX+3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7mNdaHyZNyUE/0vizqyfLbn5a2GcLbbM13tFxe6AXnX0iMV5NIqYcxWp9flt6Q4xzA1nyrCOw6MsMIcRS11BlA==" saltValue="6wNeRYd2zQlMHasi6ZusAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10449,6 +10448,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10683,15 +10691,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
@@ -10704,6 +10703,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10722,14 +10729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
